--- a/excel/finished/焦化12/炼焦煤气单耗分析.xlsx
+++ b/excel/finished/焦化12/炼焦煤气单耗分析.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="炼焦煤气单耗分析" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="68">
   <si>
     <t>产线</t>
   </si>
@@ -218,21 +218,20 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>本月</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,150 +249,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,194 +281,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="46">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1082,259 +765,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="41" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1342,19 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1367,18 +796,6 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,18 +803,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1409,14 +814,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1427,63 +829,24 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1492,83 +855,130 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1600,8 +1010,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr/>
-          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -1704,6 +1112,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -1837,6 +1246,7 @@
       <a:pPr>
         <a:defRPr lang="zh-CN"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2407,7 +1817,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -2421,14 +1831,14 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>1263650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4927600" y="10979785"/>
-        <a:ext cx="4184650" cy="1815465"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2693,1574 +2103,1549 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A3:V50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:W50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:O4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="15" width="7.91666666666667" customWidth="1"/>
+    <col min="2" max="15" width="7.875" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="19" max="19" width="8.08333333333333" customWidth="1"/>
+    <col min="19" max="19" width="8.125" customWidth="1"/>
     <col min="20" max="20" width="20.75" customWidth="1"/>
-    <col min="21" max="22" width="8.66666666666667" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="8.625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
-      <c r="A3" s="7" t="str">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="78" t="str">
         <f>B5&amp;"炼焦单耗分析"</f>
         <v>1#-2#炼焦单耗分析</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" ht="15" spans="1:15">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" ht="15" spans="1:15">
-      <c r="A6" s="9" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="55"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="69"/>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="69"/>
+      <c r="B8" s="9">
+        <f>_danhao_day_all!E3</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <f>_danhao_day_all!E4</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <f>_danhao_day_all!E5</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
+        <f>_danhao_day_all!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <f>_danhao_day_all!E7</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="10">
+        <f>_danhao_day_all!E8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f>_danhao_day_all!E9</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <f>_danhao_day_all!E10</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f>_danhao_day_all!E11</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f>_danhao_day_all!E12</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <f>_danhao_day_all!E13</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <f>_danhao_day_all!E14</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <f>_danhao_day_all!E15</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="33">
+        <f>_danhao_day_all!E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="69"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="69"/>
+      <c r="B12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="34"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="12">
+        <f>_danhao_day_all!F3</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="13">
+        <f>_danhao_day_all!F4</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="13">
+        <f>_danhao_day_all!F5</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <f>_danhao_day_all!F6</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <f>_danhao_day_all!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <f>_danhao_day_all!F8</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <f>_danhao_day_all!F9</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <f>_danhao_day_all!F10</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <f>_danhao_day_all!F11</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f>_danhao_day_all!F12</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="13">
+        <f>_danhao_day_all!F13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <f>_danhao_day_all!F14</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <f>_danhao_day_all!F15</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="35">
+        <f>_danhao_day_all!F16</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="34"/>
+    </row>
+    <row r="14" spans="1:22" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="69"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="70"/>
+      <c r="B15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="15">
+        <v>51</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="57"/>
+      <c r="I15" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15">
+        <f>0.051/0.76</f>
+        <v>6.7105263157894737E-2</v>
+      </c>
+      <c r="O15" s="36"/>
+      <c r="V15" s="43"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="9"/>
-      <c r="B8" s="14">
-        <f ca="1">_danhao_day_all!E3</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <f ca="1">_danhao_day_all!E4</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <f ca="1">_danhao_day_all!E5</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <f ca="1">_danhao_day_all!E6</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="15">
-        <f ca="1">_danhao_day_all!E7</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <f ca="1">_danhao_day_all!E8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <f ca="1">_danhao_day_all!E9</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <f ca="1">_danhao_day_all!E10</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <f ca="1">_danhao_day_all!E11</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <f ca="1">_danhao_day_all!E12</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
-        <f ca="1">_danhao_day_all!E13</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
-        <f ca="1">_danhao_day_all!E14</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <f ca="1">_danhao_day_all!E15</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="57">
-        <f ca="1">_danhao_day_all!E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="47.5" customHeight="1" spans="1:15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="58"/>
-    </row>
-    <row r="10" ht="15" spans="1:15">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" ht="15" spans="1:15">
-      <c r="A11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="59"/>
-    </row>
-    <row r="12" ht="15" spans="1:16">
-      <c r="A12" s="9"/>
-      <c r="B12" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O12" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="P12" s="60"/>
-    </row>
-    <row r="13" ht="15" spans="1:16">
-      <c r="A13" s="9"/>
-      <c r="B13" s="21">
-        <f>_danhao_day_all!F3</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="22">
-        <f>_danhao_day_all!F4</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="22">
-        <f>_danhao_day_all!F5</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
-        <f>_danhao_day_all!F6</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="22">
-        <f>_danhao_day_all!F7</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="22">
-        <f>_danhao_day_all!F8</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <f>_danhao_day_all!F9</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="22">
-        <f>_danhao_day_all!F10</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="22">
-        <f>_danhao_day_all!F11</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <f>_danhao_day_all!F12</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <f>_danhao_day_all!F13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <f>_danhao_day_all!F14</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <f>_danhao_day_all!F15</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="61">
-        <f>_danhao_day_all!F16</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="60"/>
-    </row>
-    <row r="14" ht="47.5" customHeight="1" spans="1:15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="62"/>
-    </row>
-    <row r="15" ht="15" spans="1:22">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28">
-        <v>51</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27">
-        <v>0.76</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28">
-        <f>0.051/0.76</f>
-        <v>0.0671052631578947</v>
-      </c>
-      <c r="O15" s="63"/>
-      <c r="V15" s="75"/>
-    </row>
-    <row r="16" ht="15" spans="1:22">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="31">
-        <f ca="1">IF(V16&lt;0,"↓"&amp;TEXT(V16,"0.00%"),IF(V16=0,0,"↑"&amp;TEXT(V16,"0.00%")))</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31" t="s">
+      <c r="E16" s="18">
+        <f>IF(V16&lt;0,"↓"&amp;TEXT(V16,"0.00%"),IF(V16=0,0,"↑"&amp;TEXT(V16,"0.00%")))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="19"/>
+      <c r="G16" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31">
-        <f ca="1">V16*N15*100</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="65"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="18">
+        <f>V16*N15*100</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="37"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="38"/>
       <c r="U16" t="s">
         <v>25</v>
       </c>
       <c r="V16">
-        <f ca="1">(VLOOKUP(B16,_danhao_day_all!D3:N16,3,FALSE)-VLOOKUP(D16,_danhao_day_all!D3:N16,3,FALSE))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:15">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-    </row>
-    <row r="18" ht="15" spans="1:15">
-      <c r="A18" s="25" t="s">
+        <f>(VLOOKUP(B16,_danhao_day_all!D3:N16,3,FALSE)-VLOOKUP(D16,_danhao_day_all!D3:N16,3,FALSE))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="55"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="25"/>
-      <c r="B19" s="12" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="70"/>
+      <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="56" t="s">
+      <c r="N19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="25"/>
-      <c r="B20" s="33">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="70"/>
+      <c r="B20" s="20">
         <f>_danhao_day_all!G3</f>
         <v>0</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="21">
         <f>_danhao_day_all!G4</f>
         <v>0</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="21">
         <f>_danhao_day_all!G5</f>
         <v>0</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="21">
         <f>_danhao_day_all!G6</f>
         <v>0</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="21">
         <f>_danhao_day_all!G7</f>
         <v>0</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="21">
         <f>_danhao_day_all!G8</f>
         <v>0</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="21">
         <f>_danhao_day_all!G9</f>
         <v>0</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="21">
         <f>_danhao_day_all!G10</f>
         <v>0</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="21">
         <f>_danhao_day_all!G11</f>
         <v>0</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="21">
         <f>_danhao_day_all!G12</f>
         <v>0</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="21">
         <f>_danhao_day_all!G13</f>
         <v>0</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="21">
         <f>_danhao_day_all!G14</f>
         <v>0</v>
       </c>
-      <c r="N20" s="34">
+      <c r="N20" s="21">
         <f>_danhao_day_all!G15</f>
         <v>0</v>
       </c>
-      <c r="O20" s="66">
+      <c r="O20" s="39">
         <f>_danhao_day_all!G16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="43" customHeight="1" spans="1:15">
-      <c r="A21" s="25"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="67"/>
-    </row>
-    <row r="22" ht="15" spans="1:15">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26" t="s">
+    <row r="21" spans="1:22" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="70"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="60"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="70"/>
+      <c r="B22" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57">
         <v>17100</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="15">
         <f>_danhao_day_all!A5</f>
         <v>0</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="27" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27">
+      <c r="H22" s="57"/>
+      <c r="I22" s="14">
         <v>3.4</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28" t="s">
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28" t="e">
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15" t="e">
         <f>I22*100/E22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="63"/>
-    </row>
-    <row r="23" ht="15" spans="1:22">
-      <c r="A23" s="25"/>
-      <c r="B23" s="36" t="s">
+      <c r="O22" s="36"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="70"/>
+      <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="31">
-        <f ca="1">IF(V23&lt;0,"↓"&amp;TEXT(V23,"0"),IF(V23=0,0,"↑"&amp;TEXT(V23,"0")))</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="31" t="s">
+      <c r="E23" s="18">
+        <f>IF(V23&lt;0,"↓"&amp;TEXT(V23,"0"),IF(V23=0,0,"↑"&amp;TEXT(V23,"0")))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31" t="e">
-        <f ca="1">V23*N22/100</f>
+      <c r="H23" s="58"/>
+      <c r="I23" s="18" t="e">
+        <f>V23*N22/100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="65"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="38"/>
       <c r="U23" t="s">
         <v>31</v>
       </c>
       <c r="V23">
-        <f ca="1">VLOOKUP(B23,_danhao_day_all!D10:N23,4,FALSE)-VLOOKUP(D23,_danhao_day_all!D10:N23,4,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:15">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" ht="15" spans="1:15">
-      <c r="A25" s="9" t="s">
+        <f>VLOOKUP(B23,_danhao_day_all!D10:N23,4,FALSE)-VLOOKUP(D23,_danhao_day_all!D10:N23,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="55"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="12" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="69"/>
+      <c r="B26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O26" s="56" t="s">
+      <c r="N26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="38">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="69"/>
+      <c r="B27" s="24">
         <f>_danhao_day_all!H3</f>
         <v>0</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="25">
         <f>_danhao_day_all!H4</f>
         <v>0</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="25">
         <f>_danhao_day_all!H5</f>
         <v>0</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="25">
         <f>_danhao_day_all!H6</f>
         <v>0</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="25">
         <f>_danhao_day_all!H7</f>
         <v>0</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="25">
         <f>_danhao_day_all!H8</f>
         <v>0</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="25">
         <f>_danhao_day_all!H9</f>
         <v>0</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="25">
         <f>_danhao_day_all!H10</f>
         <v>0</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="25">
         <f>_danhao_day_all!H11</f>
         <v>0</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="25">
         <f>_danhao_day_all!H12</f>
         <v>0</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="25">
         <f>_danhao_day_all!H13</f>
         <v>0</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="25">
         <f>_danhao_day_all!H14</f>
         <v>0</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="25">
         <f>_danhao_day_all!H15</f>
         <v>0</v>
       </c>
-      <c r="O27" s="68">
+      <c r="O27" s="40">
         <f>_danhao_day_all!H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="44" customHeight="1" spans="1:15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="62"/>
-    </row>
-    <row r="29" ht="15" spans="1:15">
-      <c r="A29" s="9"/>
-      <c r="B29" s="26" t="s">
+    <row r="28" spans="1:22" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="69"/>
+      <c r="B29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27">
+      <c r="C29" s="57"/>
+      <c r="D29" s="57">
         <v>3250</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="14">
         <f>_danhao_day_all!A6</f>
         <v>0</v>
       </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="27" t="s">
+      <c r="F29" s="15"/>
+      <c r="G29" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27">
+      <c r="H29" s="57"/>
+      <c r="I29" s="14">
         <v>3.8</v>
       </c>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28" t="s">
+      <c r="J29" s="15"/>
+      <c r="K29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28" t="e">
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15" t="e">
         <f>I29*100/E29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="63"/>
-    </row>
-    <row r="30" ht="15" spans="1:22">
-      <c r="A30" s="9"/>
-      <c r="B30" s="36" t="s">
+      <c r="O29" s="36"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="69"/>
+      <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="31">
-        <f ca="1">IF(V30&lt;0,"↓"&amp;TEXT(V30,"0"),IF(V30=0,0,"↑"&amp;TEXT(V30,"0")))</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="31" t="s">
+      <c r="E30" s="18">
+        <f>IF(V30&lt;0,"↓"&amp;TEXT(V30,"0"),IF(V30=0,0,"↑"&amp;TEXT(V30,"0")))</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31" t="e">
-        <f ca="1">V30*N29/100</f>
+      <c r="H30" s="58"/>
+      <c r="I30" s="18" t="e">
+        <f>V30*N29/100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="64"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="65"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="38"/>
       <c r="U30" t="s">
         <v>31</v>
       </c>
       <c r="V30">
-        <f ca="1">VLOOKUP(B30,_danhao_day_all!D10:N23,5,FALSE)-VLOOKUP(D30,_danhao_day_all!D10:N23,5,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:15">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-    </row>
-    <row r="32" ht="15" spans="1:15">
-      <c r="A32" s="9" t="s">
+        <f>VLOOKUP(B30,_danhao_day_all!D10:N23,5,FALSE)-VLOOKUP(D30,_danhao_day_all!D10:N23,5,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="55"/>
-    </row>
-    <row r="33" ht="15" spans="1:15">
-      <c r="A33" s="9"/>
-      <c r="B33" s="12" t="s">
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="46"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="69"/>
+      <c r="B33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="J33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="L33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O33" s="56" t="s">
+      <c r="N33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O33" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:15">
-      <c r="A34" s="9"/>
-      <c r="B34" s="38">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="69"/>
+      <c r="B34" s="24">
         <f>_danhao_day_all!I3*1000</f>
         <v>0</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="25">
         <f>_danhao_day_all!I4*1000</f>
         <v>0</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="25">
         <f>_danhao_day_all!I5*1000</f>
         <v>0</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="25">
         <f>_danhao_day_all!I6*1000</f>
         <v>0</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="25">
         <f>_danhao_day_all!I7*1000</f>
         <v>0</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="25">
         <f>_danhao_day_all!I8*1000</f>
         <v>0</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="25">
         <f>_danhao_day_all!I9*1000</f>
         <v>0</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="25">
         <f>_danhao_day_all!I10*1000</f>
         <v>0</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="25">
         <f>_danhao_day_all!I11*1000</f>
         <v>0</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="25">
         <f>_danhao_day_all!I12*1000</f>
         <v>0</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="25">
         <f>_danhao_day_all!I13*1000</f>
         <v>0</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="25">
         <f>_danhao_day_all!I14*1000</f>
         <v>0</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="25">
         <f>_danhao_day_all!I15*1000</f>
         <v>0</v>
       </c>
-      <c r="O34" s="68">
+      <c r="O34" s="40">
         <f>_danhao_day_all!I16*1000</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="46" customHeight="1" spans="1:15">
-      <c r="A35" s="9"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="62"/>
-    </row>
-    <row r="36" ht="15" spans="1:15">
-      <c r="A36" s="9"/>
-      <c r="B36" s="26" t="s">
+    <row r="35" spans="1:22" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="69"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="55"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="69"/>
+      <c r="B36" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57">
         <f>IF(B5="4.3m",15.3,21.5)</f>
         <v>21.5</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="14">
         <f>_danhao_day_all!A7</f>
         <v>0</v>
       </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="27" t="s">
+      <c r="F36" s="15"/>
+      <c r="G36" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27">
+      <c r="H36" s="57"/>
+      <c r="I36" s="14">
         <f>IF(B5="6#-7#",I29,I22)</f>
         <v>3.4</v>
       </c>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28" t="s">
+      <c r="J36" s="15"/>
+      <c r="K36" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28">
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15">
         <f>I36*E36/(E36-0.1*0.76*0.89)-I36</f>
         <v>-3.4</v>
       </c>
-      <c r="O36" s="63"/>
-    </row>
-    <row r="37" ht="15" spans="1:22">
-      <c r="A37" s="9"/>
-      <c r="B37" s="36" t="s">
+      <c r="O36" s="36"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="69"/>
+      <c r="B37" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="32">
-        <f ca="1">IF(V37&lt;0,"↓"&amp;TEXT(V37,"0"),IF(V37=0,0,"↑"&amp;TEXT(V37,"0")))</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="31" t="s">
+      <c r="F37" s="19">
+        <f>IF(V37&lt;0,"↓"&amp;TEXT(V37,"0"),IF(V37=0,0,"↑"&amp;TEXT(V37,"0")))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31">
-        <f ca="1">-V37*N36</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="64"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="65"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="18">
+        <f>-V37*N36</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="38"/>
       <c r="U37" t="s">
         <v>31</v>
       </c>
       <c r="V37">
-        <f ca="1">VLOOKUP(B37,_danhao_day_all!D10:N23,6,FALSE)-VLOOKUP(D37,_danhao_day_all!D10:N23,6,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:15">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-    </row>
-    <row r="39" ht="15" spans="1:15">
-      <c r="A39" s="9" t="s">
+        <f>VLOOKUP(B37,_danhao_day_all!D10:N23,6,FALSE)-VLOOKUP(D37,_danhao_day_all!D10:N23,6,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="55"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="9"/>
-      <c r="B40" s="12" t="s">
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="46"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="69"/>
+      <c r="B40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="13" t="s">
+      <c r="J40" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="13" t="s">
+      <c r="K40" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L40" s="13" t="s">
+      <c r="L40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="13" t="s">
+      <c r="M40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="N40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="56" t="s">
+      <c r="N40" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="9"/>
-      <c r="B41" s="40">
-        <f ca="1">_danhao_day_all!J3</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="41">
-        <f ca="1">_danhao_day_all!J4</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="41">
-        <f ca="1">_danhao_day_all!J5</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="41">
-        <f ca="1">_danhao_day_all!J6</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="41">
-        <f ca="1">_danhao_day_all!J7</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="41">
-        <f ca="1">_danhao_day_all!J8</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="41">
-        <f ca="1">_danhao_day_all!J9</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="41">
-        <f ca="1">_danhao_day_all!J10</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="41">
-        <f ca="1">_danhao_day_all!J11</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="41">
-        <f ca="1">_danhao_day_all!J12</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="41">
-        <f ca="1">_danhao_day_all!J13</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="41">
-        <f ca="1">_danhao_day_all!J14</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="41">
-        <f ca="1">_danhao_day_all!J15</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="69">
-        <f ca="1">_danhao_day_all!J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="44" customHeight="1" spans="1:15">
-      <c r="A42" s="25"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="70"/>
-    </row>
-    <row r="43" ht="15" spans="1:15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="26" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="69"/>
+      <c r="B41" s="26">
+        <f>_danhao_day_all!J3</f>
+        <v>0</v>
+      </c>
+      <c r="C41" s="27">
+        <f>_danhao_day_all!J4</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="27">
+        <f>_danhao_day_all!J5</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="27">
+        <f>_danhao_day_all!J6</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="27">
+        <f>_danhao_day_all!J7</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="27">
+        <f>_danhao_day_all!J8</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="27">
+        <f>_danhao_day_all!J9</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="27">
+        <f>_danhao_day_all!J10</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="27">
+        <f>_danhao_day_all!J11</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="27">
+        <f>_danhao_day_all!J12</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="27">
+        <f>_danhao_day_all!J13</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="27">
+        <f>_danhao_day_all!J14</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="27">
+        <f>_danhao_day_all!J15</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="41">
+        <f>_danhao_day_all!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="63"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="69"/>
+      <c r="B43" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27">
+      <c r="C43" s="57"/>
+      <c r="D43" s="57">
         <v>132</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="14">
         <v>132</v>
       </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="27" t="s">
+      <c r="F43" s="15"/>
+      <c r="G43" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27">
+      <c r="H43" s="57"/>
+      <c r="I43" s="14">
         <f>IF(B12="6#-7#",I36,I29)</f>
         <v>3.8</v>
       </c>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28" t="s">
+      <c r="J43" s="15"/>
+      <c r="K43" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28">
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15">
         <f>I43/E43</f>
-        <v>0.0287878787878788</v>
-      </c>
-      <c r="O43" s="63"/>
-    </row>
-    <row r="44" ht="15" spans="1:22">
-      <c r="A44" s="9"/>
-      <c r="B44" s="36" t="s">
+        <v>2.8787878787878786E-2</v>
+      </c>
+      <c r="O43" s="36"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="69"/>
+      <c r="B44" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="37" t="s">
+      <c r="D44" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="32">
-        <f ca="1">IF(V44&lt;0,"↓"&amp;TEXT(V44,"0"),IF(V44=0,0,"↑"&amp;TEXT(V44,"0")))</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="31" t="s">
+      <c r="F44" s="19">
+        <f>IF(V44&lt;0,"↓"&amp;TEXT(V44,"0"),IF(V44=0,0,"↑"&amp;TEXT(V44,"0")))</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="31"/>
-      <c r="I44" s="71">
-        <f ca="1">V44*N43</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="64"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="65"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="42">
+        <f>V44*N43</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="38"/>
       <c r="U44" t="s">
         <v>31</v>
       </c>
       <c r="V44">
-        <f ca="1">VLOOKUP(B44,_danhao_day_all!D10:N23,7,FALSE)-VLOOKUP(D44,_danhao_day_all!D10:N23,7,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:15">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-    </row>
-    <row r="46" ht="15" spans="1:15">
-      <c r="A46" s="44" t="s">
+        <f>VLOOKUP(B44,_danhao_day_all!D10:N23,7,FALSE)-VLOOKUP(D44,_danhao_day_all!D10:N23,7,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="72"/>
-    </row>
-    <row r="47" ht="15" spans="1:15">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47" t="s">
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="65"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="72"/>
+      <c r="B47" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="47" t="s">
+      <c r="F47" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="48" t="s">
+      <c r="G47" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="48" t="s">
+      <c r="H47" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="56"/>
-    </row>
-    <row r="48" ht="15" spans="1:15">
-      <c r="A48" s="46"/>
-      <c r="B48" s="49">
-        <f ca="1">I16</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="49" t="e">
-        <f ca="1">I23</f>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="75"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="72"/>
+      <c r="B48" s="30">
+        <f>I16</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="30" t="e">
+        <f>I23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="49" t="e">
-        <f ca="1">I30</f>
+      <c r="D48" s="30" t="e">
+        <f>I30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="49">
-        <f ca="1">I37</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="49">
-        <f ca="1">I44</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="50" t="e">
-        <f ca="1">SUM(B48:F48)</f>
+      <c r="E48" s="30">
+        <f>I37</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="30">
+        <f>I44</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="31" t="e">
+        <f>SUM(B48:F48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="50" t="e">
-        <f ca="1">O8-N8-G48</f>
+      <c r="H48" s="31" t="e">
+        <f>O8-N8-G48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="56"/>
-    </row>
-    <row r="49" ht="15" spans="1:15">
-      <c r="A49" s="46"/>
-      <c r="B49" s="49">
-        <f ca="1">ABS(B48)</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="49" t="e">
-        <f ca="1" t="shared" ref="C49:H49" si="0">ABS(C48)</f>
+      <c r="I48" s="74"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="74"/>
+      <c r="M48" s="74"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="75"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="72"/>
+      <c r="B49" s="30">
+        <f>ABS(B48)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="30" t="e">
+        <f t="shared" ref="C49:H49" si="0">ABS(C48)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="49" t="e">
-        <f ca="1" t="shared" si="0"/>
+      <c r="D49" s="30" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="49">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="49">
-        <f ca="1" t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="49" t="e">
-        <f ca="1" t="shared" si="0"/>
+      <c r="E49" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="30" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="49" t="e">
-        <f ca="1" t="shared" si="0"/>
+      <c r="H49" s="30" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="56"/>
-    </row>
-    <row r="50" ht="101" customHeight="1" spans="1:15">
-      <c r="A50" s="51"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="73"/>
-      <c r="J50" s="73"/>
-      <c r="K50" s="73"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="73"/>
-      <c r="O50" s="74"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="75"/>
+    </row>
+    <row r="50" spans="1:15" ht="101.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="73"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="76"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B35:O35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A3:O4"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="B46:O46"/>
     <mergeCell ref="B50:H50"/>
@@ -4272,40 +3657,65 @@
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A46:A50"/>
     <mergeCell ref="I47:O50"/>
-    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B39:O39"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B35:O35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="G15:H15"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 D16 B23 D23 B30 D30 B37 D37 B44 D44">
       <formula1>$B$12:$O$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57" spans="1:1">
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="4:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>52</v>
       </c>
@@ -4328,143 +3738,143 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="3:7">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C3" s="79" t="s">
         <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="79"/>
       <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="79"/>
       <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="79"/>
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="79"/>
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="79"/>
       <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="79"/>
       <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="79"/>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="79"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="79"/>
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="79"/>
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="79"/>
+      <c r="D14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="79"/>
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="79"/>
       <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="5">
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="4">
         <f ca="1">NOW()</f>
-        <v>43637.6577662037</v>
-      </c>
-    </row>
-    <row r="19" ht="78" customHeight="1" spans="5:10">
+        <v>43683.632107754631</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4472,39 +3882,37 @@
   <mergeCells count="1">
     <mergeCell ref="C3:C16"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="F6 D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -4513,7 +3921,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化12/炼焦煤气单耗分析.xlsx
+++ b/excel/finished/焦化12/炼焦煤气单耗分析.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B312A4-96D4-46FF-9298-39728B2F756B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20730" windowHeight="9720"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="炼焦煤气单耗分析" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="_metadata" sheetId="3" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
   <si>
     <t>产线</t>
   </si>
@@ -26,9 +39,6 @@
   </si>
   <si>
     <t>炼焦单耗变化</t>
-  </si>
-  <si>
-    <t>近1周</t>
   </si>
   <si>
     <t>今日</t>
@@ -204,7 +214,7 @@
   </si>
   <si>
     <t>本月</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -230,7 +240,7 @@
       </rPr>
       <t>#</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>version</t>
@@ -242,17 +252,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,8 +339,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="5"/>
-        <bgColor indexed="5"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="2"/>
       </patternFill>
     </fill>
   </fills>
@@ -725,12 +742,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -768,13 +785,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,8 +801,6 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -807,7 +821,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -816,23 +830,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,46 +896,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -899,12 +917,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -938,6 +959,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A097-466D-9124-F52450BF0DBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -952,6 +978,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A097-466D-9124-F52450BF0DBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -966,6 +997,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A097-466D-9124-F52450BF0DBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -980,6 +1016,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A097-466D-9124-F52450BF0DBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -994,6 +1035,11 @@
                 </a:solidFill>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A097-466D-9124-F52450BF0DBE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1045,6 +1091,9 @@
                 </a:ln>
               </c:spPr>
             </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1093,6 +1142,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-A097-466D-9124-F52450BF0DBE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1149,7 +1203,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1228,6 +1282,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E80C-4B03-8BA1-8BC89C2B8426}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1400,13 +1459,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>482600</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>1682750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 1"/>
+        <xdr:cNvPr id="4" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1438,7 +1503,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 3"/>
+        <xdr:cNvPr id="5" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1667,65 +1738,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:V44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="15" width="7.875" customWidth="1"/>
+    <col min="2" max="13" width="7.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" customWidth="1"/>
     <col min="16" max="16" width="6" customWidth="1"/>
-    <col min="19" max="19" width="8.125" customWidth="1"/>
-    <col min="20" max="22" width="7.625" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="8.08203125" customWidth="1"/>
+    <col min="20" max="22" width="7.58203125" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="7.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="str">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="str">
         <f>B5&amp;"炼焦单耗分析"</f>
         <v>1#-2#炼焦单耗分析</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>55</v>
+      <c r="B5" s="37" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1738,35 +1811,35 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="str">
-        <f>IF(_metadata!$B$2="","",_metadata!$B$2)</f>
+      <c r="N5" s="61" t="str">
+        <f>IF(_metadata!$B$1="","",_metadata!$B$1)</f>
         <v/>
       </c>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
       <c r="B7" s="2" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
@@ -1815,15 +1888,15 @@
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N7" s="39" t="s">
-        <v>54</v>
+      <c r="N7" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
       <c r="B8" s="5" t="str">
         <f>IF(_danhao_day_all!E3="","",_danhao_day_all!E3)</f>
         <v/>
@@ -1882,7 +1955,7 @@
       </c>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1899,29 +1972,29 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="53"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="45"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="2" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
@@ -1970,15 +2043,15 @@
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N11" s="39" t="s">
-        <v>53</v>
+      <c r="N11" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="str">
         <f>IF(_danhao_day_all!F3="","",_danhao_day_all!F3)</f>
         <v/>
@@ -2036,27 +2109,27 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="1">
         <v>51</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="56"/>
+      <c r="G13" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="48"/>
       <c r="I13" s="13">
         <v>0.76</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2067,45 +2140,45 @@
       <c r="O13" s="14"/>
       <c r="V13" s="15"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="17" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="18">
+      <c r="C14" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="17">
         <f ca="1">IF(V14&lt;0,"↓"&amp;TEXT(V14,"0.00%"),IF(V14=0,0,"↑"&amp;TEXT(V14,"0.00%")))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="18">
+      <c r="F14" s="18"/>
+      <c r="G14" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="49"/>
+      <c r="I14" s="17">
         <f ca="1">V14*N13*100</f>
         <v>0</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="20"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="19"/>
       <c r="U14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V14">
         <f ca="1">(VLOOKUP(B14,_danhao_day_all!D3:N16,3,FALSE)-VLOOKUP(D14,_danhao_day_all!D3:N16,3,FALSE))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2122,29 +2195,29 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
       <c r="B17" s="2" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
@@ -2193,79 +2266,79 @@
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N17" s="39" t="s">
-        <v>53</v>
+      <c r="N17" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="21" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="20" t="str">
         <f>IF(_danhao_day_all!G3="","",_danhao_day_all!G3)</f>
         <v/>
       </c>
-      <c r="C18" s="22" t="str">
+      <c r="C18" s="21" t="str">
         <f>IF(_danhao_day_all!G4="","",_danhao_day_all!G4)</f>
         <v/>
       </c>
-      <c r="D18" s="22" t="str">
+      <c r="D18" s="21" t="str">
         <f>IF(_danhao_day_all!G5="","",_danhao_day_all!G5)</f>
         <v/>
       </c>
-      <c r="E18" s="22" t="str">
+      <c r="E18" s="21" t="str">
         <f>IF(_danhao_day_all!G6="","",_danhao_day_all!G6)</f>
         <v/>
       </c>
-      <c r="F18" s="22" t="str">
+      <c r="F18" s="21" t="str">
         <f>IF(_danhao_day_all!G7="","",_danhao_day_all!G7)</f>
         <v/>
       </c>
-      <c r="G18" s="22" t="str">
+      <c r="G18" s="21" t="str">
         <f>IF(_danhao_day_all!G8="","",_danhao_day_all!G8)</f>
         <v/>
       </c>
-      <c r="H18" s="22" t="str">
+      <c r="H18" s="21" t="str">
         <f>IF(_danhao_day_all!G9="","",_danhao_day_all!G9)</f>
         <v/>
       </c>
-      <c r="I18" s="22" t="str">
+      <c r="I18" s="21" t="str">
         <f>IF(_danhao_day_all!G10="","",_danhao_day_all!G10)</f>
         <v/>
       </c>
-      <c r="J18" s="22" t="str">
+      <c r="J18" s="21" t="str">
         <f>IF(_danhao_day_all!G11="","",_danhao_day_all!G11)</f>
         <v/>
       </c>
-      <c r="K18" s="22" t="str">
+      <c r="K18" s="21" t="str">
         <f>IF(_danhao_day_all!G12="","",_danhao_day_all!G12)</f>
         <v/>
       </c>
-      <c r="L18" s="22" t="str">
+      <c r="L18" s="21" t="str">
         <f>IF(_danhao_day_all!G13="","",_danhao_day_all!G13)</f>
         <v/>
       </c>
-      <c r="M18" s="22" t="str">
+      <c r="M18" s="21" t="str">
         <f>IF(_danhao_day_all!G14="","",_danhao_day_all!G14)</f>
         <v/>
       </c>
-      <c r="N18" s="22" t="str">
+      <c r="N18" s="21" t="str">
         <f>IF(_danhao_day_all!G15="","",_danhao_day_all!G15)</f>
         <v/>
       </c>
-      <c r="O18" s="23" t="str">
+      <c r="O18" s="22" t="str">
         <f>IF(_danhao_day_all!G16="","",_danhao_day_all!G16)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48">
         <v>17100</v>
       </c>
       <c r="E19" s="1">
@@ -2273,16 +2346,16 @@
         <v>13700</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="56"/>
+      <c r="G19" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="48"/>
       <c r="I19" s="13">
         <v>3.4</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2292,45 +2365,45 @@
       </c>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="25" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="18">
+      <c r="C20" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="17">
         <f ca="1">IF(V20&lt;0,"↓"&amp;TEXT(V20,"0"),IF(V20=0,0,"↑"&amp;TEXT(V20,"0")))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="18">
+      <c r="F20" s="18"/>
+      <c r="G20" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="17">
         <f ca="1">V20*N19/100</f>
         <v>0</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="20"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="19"/>
       <c r="U20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V20">
         <f ca="1">VLOOKUP(B20,_danhao_day_all!D10:N23,4,FALSE)-VLOOKUP(D20,_danhao_day_all!D10:N23,4,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2347,29 +2420,29 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="53" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
       <c r="B23" s="2" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
@@ -2418,79 +2491,79 @@
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N23" s="39" t="s">
-        <v>53</v>
+      <c r="N23" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="21" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="20" t="str">
         <f>IF(_danhao_day_all!H3="","",_danhao_day_all!H3)</f>
         <v/>
       </c>
-      <c r="C24" s="22" t="str">
+      <c r="C24" s="21" t="str">
         <f>IF(_danhao_day_all!H4="","",_danhao_day_all!H4)</f>
         <v/>
       </c>
-      <c r="D24" s="22" t="str">
+      <c r="D24" s="21" t="str">
         <f>IF(_danhao_day_all!H5="","",_danhao_day_all!H5)</f>
         <v/>
       </c>
-      <c r="E24" s="22" t="str">
+      <c r="E24" s="21" t="str">
         <f>IF(_danhao_day_all!H6="","",_danhao_day_all!H6)</f>
         <v/>
       </c>
-      <c r="F24" s="22" t="str">
+      <c r="F24" s="21" t="str">
         <f>IF(_danhao_day_all!H7="","",_danhao_day_all!H7)</f>
         <v/>
       </c>
-      <c r="G24" s="22" t="str">
+      <c r="G24" s="21" t="str">
         <f>IF(_danhao_day_all!H8="","",_danhao_day_all!H8)</f>
         <v/>
       </c>
-      <c r="H24" s="22" t="str">
+      <c r="H24" s="21" t="str">
         <f>IF(_danhao_day_all!H9="","",_danhao_day_all!H9)</f>
         <v/>
       </c>
-      <c r="I24" s="22" t="str">
+      <c r="I24" s="21" t="str">
         <f>IF(_danhao_day_all!H10="","",_danhao_day_all!H10)</f>
         <v/>
       </c>
-      <c r="J24" s="22" t="str">
+      <c r="J24" s="21" t="str">
         <f>IF(_danhao_day_all!H11="","",_danhao_day_all!H11)</f>
         <v/>
       </c>
-      <c r="K24" s="22" t="str">
+      <c r="K24" s="21" t="str">
         <f>IF(_danhao_day_all!H12="","",_danhao_day_all!H12)</f>
         <v/>
       </c>
-      <c r="L24" s="22" t="str">
+      <c r="L24" s="21" t="str">
         <f>IF(_danhao_day_all!H13="","",_danhao_day_all!H13)</f>
         <v/>
       </c>
-      <c r="M24" s="22" t="str">
+      <c r="M24" s="21" t="str">
         <f>IF(_danhao_day_all!H14="","",_danhao_day_all!H14)</f>
         <v/>
       </c>
-      <c r="N24" s="22" t="str">
+      <c r="N24" s="21" t="str">
         <f>IF(_danhao_day_all!H15="","",_danhao_day_all!H15)</f>
         <v/>
       </c>
-      <c r="O24" s="23" t="str">
+      <c r="O24" s="22" t="str">
         <f>IF(_danhao_day_all!H16="","",_danhao_day_all!H16)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48">
         <v>3250</v>
       </c>
       <c r="E25" s="13">
@@ -2498,16 +2571,16 @@
         <v>3250</v>
       </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="56"/>
+      <c r="G25" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="48"/>
       <c r="I25" s="13">
         <v>3.8</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2517,45 +2590,44 @@
       </c>
       <c r="O25" s="14"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="25" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="18">
+      <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="17">
         <f ca="1">IF(V26&lt;0,"↓"&amp;TEXT(V26,"0"),IF(V26=0,0,"↑"&amp;TEXT(V26,"0")))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="57" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="49"/>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="19"/>
+      <c r="U26" t="s">
         <v>18</v>
-      </c>
-      <c r="H26" s="57"/>
-      <c r="I26" s="18">
-        <f ca="1">V26*N25/100</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="20"/>
-      <c r="U26" t="s">
-        <v>19</v>
       </c>
       <c r="V26">
         <f ca="1">VLOOKUP(B26,_danhao_day_all!D10:N23,5,FALSE)-VLOOKUP(D26,_danhao_day_all!D10:N23,5,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2572,29 +2644,29 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
       <c r="B29" s="2" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
@@ -2643,79 +2715,79 @@
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N29" s="39" t="s">
-        <v>53</v>
+      <c r="N29" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="26" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="23" t="str">
         <f>IF(_danhao_day_all!I3="","",_danhao_day_all!I3*1000)</f>
         <v/>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="24" t="str">
         <f>IF(_danhao_day_all!I4="","",_danhao_day_all!I4*1000)</f>
         <v/>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="24" t="str">
         <f>IF(_danhao_day_all!I5="","",_danhao_day_all!I5*1000)</f>
         <v/>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="24" t="str">
         <f>IF(_danhao_day_all!I6="","",_danhao_day_all!I6*1000)</f>
         <v/>
       </c>
-      <c r="F30" s="27" t="str">
+      <c r="F30" s="24" t="str">
         <f>IF(_danhao_day_all!I7="","",_danhao_day_all!I7*1000)</f>
         <v/>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="24" t="str">
         <f>IF(_danhao_day_all!I8="","",_danhao_day_all!I8*1000)</f>
         <v/>
       </c>
-      <c r="H30" s="27" t="str">
+      <c r="H30" s="24" t="str">
         <f>IF(_danhao_day_all!I9="","",_danhao_day_all!I9*1000)</f>
         <v/>
       </c>
-      <c r="I30" s="27" t="str">
+      <c r="I30" s="24" t="str">
         <f>IF(_danhao_day_all!I10="","",_danhao_day_all!I10*1000)</f>
         <v/>
       </c>
-      <c r="J30" s="27" t="str">
+      <c r="J30" s="24" t="str">
         <f>IF(_danhao_day_all!I11="","",_danhao_day_all!I11*1000)</f>
         <v/>
       </c>
-      <c r="K30" s="27" t="str">
+      <c r="K30" s="24" t="str">
         <f>IF(_danhao_day_all!I12="","",_danhao_day_all!I12*1000)</f>
         <v/>
       </c>
-      <c r="L30" s="27" t="str">
+      <c r="L30" s="24" t="str">
         <f>IF(_danhao_day_all!I13="","",_danhao_day_all!I13*1000)</f>
         <v/>
       </c>
-      <c r="M30" s="27" t="str">
+      <c r="M30" s="24" t="str">
         <f>IF(_danhao_day_all!I14="","",_danhao_day_all!I14*1000)</f>
         <v/>
       </c>
-      <c r="N30" s="27" t="str">
+      <c r="N30" s="24" t="str">
         <f>IF(_danhao_day_all!I15="","",_danhao_day_all!I15*1000)</f>
         <v/>
       </c>
-      <c r="O30" s="28" t="str">
+      <c r="O30" s="25" t="str">
         <f>IF(_danhao_day_all!I16="","",_danhao_day_all!I16*1000)</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48">
         <f>IF(B5="4.3m",15.3,21.5)</f>
         <v>21.5</v>
       </c>
@@ -2724,17 +2796,17 @@
         <v>0</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="56"/>
+      <c r="G31" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="48"/>
       <c r="I31" s="13">
         <f>IF(B5="6#-7#",I25,I19)</f>
         <v>3.4</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -2744,47 +2816,47 @@
       </c>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="25" t="s">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="19">
+      <c r="C32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="18">
         <f ca="1">IF(V32&lt;0,"↓"&amp;TEXT(V32*1000,"0"),IF(V32=0,0,"↑"&amp;TEXT(V32*1000,"0")))</f>
         <v>0</v>
       </c>
-      <c r="G32" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="18">
+      <c r="G32" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="49"/>
+      <c r="I32" s="17">
         <f ca="1">-V32*N31</f>
         <v>0</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="20"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="19"/>
       <c r="U32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V32">
         <f ca="1">VLOOKUP(B32,_danhao_day_all!D10:N23,6,FALSE)-VLOOKUP(D32,_danhao_day_all!D10:N23,6,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2801,29 +2873,29 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
       <c r="B35" s="2" t="e">
         <f>IF((MONTH($N$5)-12)&lt;=0,MONTH($N$5)-12+12&amp;"月",MONTH($N$5)-12&amp;"月")</f>
         <v>#VALUE!</v>
@@ -2872,96 +2944,96 @@
         <f>IF((MONTH($N$5)-1)&lt;=0,MONTH($N$5)-1+12&amp;"月",MONTH($N$5)-1&amp;"月")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N35" s="39" t="s">
-        <v>53</v>
+      <c r="N35" s="36" t="s">
+        <v>52</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="29" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="26" t="str">
         <f>IF(_danhao_day_all!J3="","",_danhao_day_all!J3)</f>
         <v/>
       </c>
-      <c r="C36" s="30" t="str">
+      <c r="C36" s="27" t="str">
         <f>IF(_danhao_day_all!J4="","",_danhao_day_all!J4)</f>
         <v/>
       </c>
-      <c r="D36" s="30" t="str">
+      <c r="D36" s="27" t="str">
         <f>IF(_danhao_day_all!J5="","",_danhao_day_all!J5)</f>
         <v/>
       </c>
-      <c r="E36" s="30" t="str">
+      <c r="E36" s="27" t="str">
         <f>IF(_danhao_day_all!J6="","",_danhao_day_all!J6)</f>
         <v/>
       </c>
-      <c r="F36" s="30" t="str">
+      <c r="F36" s="27" t="str">
         <f>IF(_danhao_day_all!J7="","",_danhao_day_all!J7)</f>
         <v/>
       </c>
-      <c r="G36" s="30" t="str">
+      <c r="G36" s="27" t="str">
         <f>IF(_danhao_day_all!J8="","",_danhao_day_all!J8)</f>
         <v/>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="H36" s="27" t="str">
         <f>IF(_danhao_day_all!J9="","",_danhao_day_all!J9)</f>
         <v/>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="27" t="str">
         <f>IF(_danhao_day_all!J10="","",_danhao_day_all!J10)</f>
         <v/>
       </c>
-      <c r="J36" s="30" t="str">
+      <c r="J36" s="27" t="str">
         <f>IF(_danhao_day_all!J11="","",_danhao_day_all!J11)</f>
         <v/>
       </c>
-      <c r="K36" s="30" t="str">
+      <c r="K36" s="27" t="str">
         <f>IF(_danhao_day_all!J12="","",_danhao_day_all!J12)</f>
         <v/>
       </c>
-      <c r="L36" s="30" t="str">
+      <c r="L36" s="27" t="str">
         <f>IF(_danhao_day_all!J13="","",_danhao_day_all!J13)</f>
         <v/>
       </c>
-      <c r="M36" s="30" t="str">
+      <c r="M36" s="27" t="str">
         <f>IF(_danhao_day_all!J14="","",_danhao_day_all!J14)</f>
         <v/>
       </c>
-      <c r="N36" s="30" t="str">
+      <c r="N36" s="27" t="str">
         <f>IF(_danhao_day_all!J15="","",_danhao_day_all!J15)</f>
         <v/>
       </c>
-      <c r="O36" s="31" t="str">
+      <c r="O36" s="28" t="str">
         <f>IF(_danhao_day_all!J16="","",_danhao_day_all!J16)</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48">
         <v>132</v>
       </c>
       <c r="E37" s="13">
         <v>132</v>
       </c>
       <c r="F37" s="1"/>
-      <c r="G37" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="56"/>
+      <c r="G37" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="48"/>
       <c r="I37" s="13">
         <f>IF(B5="6#-7#",I25,I19)</f>
         <v>3.4</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2971,47 +3043,47 @@
       </c>
       <c r="O37" s="14"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="25" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="19">
+      <c r="C38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="18">
         <f ca="1">IF(V38&lt;0,"↓"&amp;TEXT(V38,"0"),IF(V38=0,0,"↑"&amp;TEXT(V38,"0")))</f>
         <v>0</v>
       </c>
-      <c r="G38" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="57"/>
-      <c r="I38" s="18">
+      <c r="G38" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="49"/>
+      <c r="I38" s="17">
         <f ca="1">V38*N37</f>
         <v>0</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="20"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="19"/>
       <c r="U38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V38">
         <f ca="1">VLOOKUP(B38,_danhao_day_all!D10:N23,7,FALSE)-VLOOKUP(D38,_danhao_day_all!D10:N23,7,FALSE)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3028,176 +3100,153 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="52"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="44"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="32" t="s">
+      <c r="C41" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="D41" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="E41" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="F41" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="H41" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H41" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="47"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
-      <c r="B42" s="33">
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="54"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="46"/>
+      <c r="B42" s="30">
         <f ca="1">I14</f>
         <v>0</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="30">
         <f ca="1">I20</f>
         <v>0</v>
       </c>
-      <c r="D42" s="33">
-        <f ca="1">I26</f>
+      <c r="D42" s="30">
+        <f>I26</f>
         <v>0</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="30">
         <f ca="1">I32</f>
         <v>0</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F42" s="30">
         <f ca="1">I38</f>
         <v>0</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="30">
         <f ca="1">SUM(B42:F42)</f>
         <v>0</v>
       </c>
-      <c r="H42" s="32" t="e">
+      <c r="H42" s="29" t="e">
         <f ca="1">O8-VLOOKUP(D14,_danhao_day_all!D3:E16,2,FALSE)-G42</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="47"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="33">
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="53"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="53"/>
+      <c r="O42" s="54"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="30">
         <f t="shared" ref="B43:H43" ca="1" si="0">ABS(B42)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D43" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="E43" s="33">
+      <c r="F43" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" s="33">
+      <c r="G43" s="30">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="33">
+      <c r="H43" s="30" t="e">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="33" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="47"/>
-    </row>
-    <row r="44" spans="1:22" ht="134.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="53"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="54"/>
+    </row>
+    <row r="44" spans="1:22" ht="134.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="I41:O44"/>
@@ -3207,8 +3256,36 @@
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14 B14 D20 B20 D26 B26 D32 B32 D38 B38" xr:uid="{22EDFD51-AFC1-4FEF-9403-6DF8AA2CD148}">
+      <formula1>$B$7:$O$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3217,190 +3294,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="56" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C3" s="60" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-12)&lt;=0,MONTH(D$17)-12+12&amp;"月",MONTH(D$17)-12&amp;"月")</f>
         <v>8月</v>
       </c>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="63"/>
-      <c r="D4" s="35" t="str">
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="60"/>
+      <c r="D4" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-11)&lt;=0,MONTH(D$17)-11+12&amp;"月",MONTH(D$17)-11&amp;"月")</f>
         <v>9月</v>
       </c>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="63"/>
-      <c r="D5" s="35" t="str">
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="60"/>
+      <c r="D5" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-10)&lt;=0,MONTH(D$17)-10+12&amp;"月",MONTH(D$17)-10&amp;"月")</f>
         <v>10月</v>
       </c>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="63"/>
-      <c r="D6" s="35" t="str">
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="60"/>
+      <c r="D6" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-9)&lt;=0,MONTH(D$17)-9+12&amp;"月",MONTH(D$17)-9&amp;"月")</f>
         <v>11月</v>
       </c>
-      <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="63"/>
-      <c r="D7" s="35" t="str">
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="60"/>
+      <c r="D7" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-8)&lt;=0,MONTH(D$17)-8+12&amp;"月",MONTH(D$17)-8&amp;"月")</f>
         <v>12月</v>
       </c>
-      <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="63"/>
-      <c r="D8" s="35" t="str">
+      <c r="F7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="60"/>
+      <c r="D8" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-7)&lt;=0,MONTH(D$17)-7+12&amp;"月",MONTH(D$17)-7&amp;"月")</f>
         <v>1月</v>
       </c>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="63"/>
-      <c r="D9" s="35" t="str">
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="60"/>
+      <c r="D9" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-6)&lt;=0,MONTH(D$17)-6+12&amp;"月",MONTH(D$17)-6&amp;"月")</f>
         <v>2月</v>
       </c>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="63"/>
-      <c r="D10" s="35" t="str">
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="60"/>
+      <c r="D10" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-5)&lt;=0,MONTH(D$17)-5+12&amp;"月",MONTH(D$17)-5&amp;"月")</f>
         <v>3月</v>
       </c>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="63"/>
-      <c r="D11" s="35" t="str">
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="60"/>
+      <c r="D11" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-4)&lt;=0,MONTH(D$17)-4+12&amp;"月",MONTH(D$17)-4&amp;"月")</f>
         <v>4月</v>
       </c>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C12" s="63"/>
-      <c r="D12" s="35" t="str">
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="60"/>
+      <c r="D12" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-3)&lt;=0,MONTH(D$17)-3+12&amp;"月",MONTH(D$17)-3&amp;"月")</f>
         <v>5月</v>
       </c>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C13" s="63"/>
-      <c r="D13" s="35" t="str">
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="60"/>
+      <c r="D13" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-2)&lt;=0,MONTH(D$17)-2+12&amp;"月",MONTH(D$17)-2&amp;"月")</f>
         <v>6月</v>
       </c>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C14" s="63"/>
-      <c r="D14" s="35" t="str">
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="60"/>
+      <c r="D14" s="32" t="str">
         <f ca="1">IF((MONTH(D$17)-1)&lt;=0,MONTH(D$17)-1+12&amp;"月",MONTH(D$17)-1&amp;"月")</f>
         <v>7月</v>
       </c>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="63"/>
-      <c r="D15" t="s">
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="60"/>
+      <c r="D15" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="60"/>
+      <c r="D16" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="63"/>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
-      <c r="D17" s="35">
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="32">
         <f ca="1">NOW()</f>
-        <v>43684.352899189813</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43684.383034722225</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="G19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="H19" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="I19" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="J19" s="34" t="s">
         <v>51</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:C16"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3408,29 +3487,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="38"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="38"/>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="35"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3438,28 +3517,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="41"/>
+    <col min="1" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="41">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="38">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>